--- a/po_analysis_by_asin/B0D5DF12VH_po_data.xlsx
+++ b/po_analysis_by_asin/B0D5DF12VH_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>300</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>188</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>52</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>16</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>36</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>66</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>44</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>300</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>204</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>70</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>146</v>

--- a/po_analysis_by_asin/B0D5DF12VH_po_data.xlsx
+++ b/po_analysis_by_asin/B0D5DF12VH_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,285 @@
       </c>
       <c r="B6" t="n">
         <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C2" t="n">
+        <v>165.4119923190973</v>
+      </c>
+      <c r="D2" t="n">
+        <v>303.3076820452268</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>153</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82.08832356171898</v>
+      </c>
+      <c r="D3" t="n">
+        <v>224.2520079927008</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>144</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77.00439212818584</v>
+      </c>
+      <c r="D4" t="n">
+        <v>215.0087182320688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>61</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.780719000329084</v>
+      </c>
+      <c r="D5" t="n">
+        <v>134.2511777463187</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-18.17679923123305</v>
+      </c>
+      <c r="D6" t="n">
+        <v>124.7265385945895</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-38.30827204519854</v>
+      </c>
+      <c r="D7" t="n">
+        <v>102.7598390994168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-43.21603189722975</v>
+      </c>
+      <c r="D8" t="n">
+        <v>97.53984980463623</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-55.48734328240284</v>
+      </c>
+      <c r="D9" t="n">
+        <v>84.54267306706453</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-65.0933717912435</v>
+      </c>
+      <c r="D10" t="n">
+        <v>79.32069324275334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-75.45007976725827</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65.15159799493622</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-77.08543811667437</v>
+      </c>
+      <c r="D12" t="n">
+        <v>54.52832337476761</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-92.32890042724217</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.58184636936019</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-103.3215383459327</v>
+      </c>
+      <c r="D14" t="n">
+        <v>36.9387129846398</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-112.4078564027689</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30.43065616343274</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-120.7287656697358</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.88639436142696</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-131.8369033066456</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.15776412029337</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-137.7184540786214</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.165188836497326</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D5DF12VH_po_data.xlsx
+++ b/po_analysis_by_asin/B0D5DF12VH_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>236</v>
       </c>
-      <c r="C2" t="n">
-        <v>165.4119923190973</v>
-      </c>
-      <c r="D2" t="n">
-        <v>303.3076820452268</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>153</v>
       </c>
-      <c r="C3" t="n">
-        <v>82.08832356171898</v>
-      </c>
-      <c r="D3" t="n">
-        <v>224.2520079927008</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>144</v>
       </c>
-      <c r="C4" t="n">
-        <v>77.00439212818584</v>
-      </c>
-      <c r="D4" t="n">
-        <v>215.0087182320688</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>61</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.780719000329084</v>
-      </c>
-      <c r="D5" t="n">
-        <v>134.2511777463187</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>52</v>
       </c>
-      <c r="C6" t="n">
-        <v>-18.17679923123305</v>
-      </c>
-      <c r="D6" t="n">
-        <v>124.7265385945895</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>33</v>
       </c>
-      <c r="C7" t="n">
-        <v>-38.30827204519854</v>
-      </c>
-      <c r="D7" t="n">
-        <v>102.7598390994168</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>24</v>
       </c>
-      <c r="C8" t="n">
-        <v>-43.21603189722975</v>
-      </c>
-      <c r="D8" t="n">
-        <v>97.53984980463623</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="n">
-        <v>-55.48734328240284</v>
-      </c>
-      <c r="D9" t="n">
-        <v>84.54267306706453</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>-65.0933717912435</v>
-      </c>
-      <c r="D10" t="n">
-        <v>79.32069324275334</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-75.45007976725827</v>
-      </c>
-      <c r="D11" t="n">
-        <v>65.15159799493622</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-77.08543811667437</v>
-      </c>
-      <c r="D12" t="n">
-        <v>54.52832337476761</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-92.32890042724217</v>
-      </c>
-      <c r="D13" t="n">
-        <v>46.58184636936019</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-103.3215383459327</v>
-      </c>
-      <c r="D14" t="n">
-        <v>36.9387129846398</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>-112.4078564027689</v>
-      </c>
-      <c r="D15" t="n">
-        <v>30.43065616343274</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>-120.7287656697358</v>
-      </c>
-      <c r="D16" t="n">
-        <v>23.88639436142696</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>-131.8369033066456</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.15776412029337</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -865,12 +759,6 @@
       </c>
       <c r="B18" t="n">
         <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-137.7184540786214</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.165188836497326</v>
       </c>
     </row>
   </sheetData>
